--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.8148294795312</v>
+        <v>1340.95579302708</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.00599980354309082</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.72482947953772</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.98279108423719</v>
+        <v>11.8446015159008</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.8099999999934</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.28</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>13.39818852545001</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>6.233832308733817</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.95791286732633</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.68569098426262</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.58460255878718</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,15 +1087,85 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>103.9100000000002</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>95.24500000000022</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>99.18000000000022</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.1900000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>104.1450000000002</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>188.9799999999993</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>183.7849999999993</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>174.0899999999993</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>188.1599999999993</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>186.8899999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>101.7250000000004</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.12000000000037</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>98.26500000000037</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>96.94500000000036</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>103.5650000000004</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>136.8550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>127.2550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.4800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>188.9799999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>183.7849999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>174.0899999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>188.1599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>186.8899999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>38.97999999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>33.78499999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>24.08999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>38.15999999999934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>36.88999999999933</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,12 +2294,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
